--- a/model_inputs/financial_reports/clinical/VCH.xlsx
+++ b/model_inputs/financial_reports/clinical/VCH.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133FB071-5145-45E8-AA6F-7FA6C1C5C472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1981613D-6978-4736-A773-9B5F7B7E1A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
@@ -834,196 +834,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1038,35 +1038,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.81640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.26953125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="16.81640625" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
     <col min="15" max="15" width="23" customWidth="1"/>
-    <col min="16" max="16" width="22.54296875" customWidth="1"/>
-    <col min="17" max="18" width="18.81640625" customWidth="1"/>
-    <col min="19" max="19" width="20.81640625" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" customWidth="1"/>
+    <col min="17" max="18" width="18.85546875" customWidth="1"/>
+    <col min="19" max="19" width="20.85546875" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="14.453125" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1013</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1113</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1213</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>8000.01</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1313</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1413</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>1252.94</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1513</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>1252.98</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1613</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>1253.02</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1713</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1813</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>1913</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>1252.99</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2013</v>
       </c>
@@ -1508,23 +1508,23 @@
         <v>4753.01</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20"/>
       <c r="D20"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I28" s="6"/>
     </row>
   </sheetData>
@@ -1537,26 +1537,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="102" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" customWidth="1"/>
-    <col min="9" max="9" width="20.81640625" customWidth="1"/>
-    <col min="10" max="10" width="23.26953125" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1013</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>500136.91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1113</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>500136.91</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1213</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>500136.9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1313</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>480136.89</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1413</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>480136.9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1513</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>530136.88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1613</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>510136.86</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1713</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>485136.87</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1813</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>485136.87</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>1913</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>583136.80000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2013</v>
       </c>
@@ -1998,12 +1998,12 @@
         <v>670286.78</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="D15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" s="3"/>
     </row>
   </sheetData>
@@ -2016,25 +2016,25 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" customWidth="1"/>
-    <col min="9" max="9" width="20.81640625" customWidth="1"/>
-    <col min="10" max="10" width="23.26953125" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1013</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1113</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1213</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1313</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>61835.06</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1413</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>56327.11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1513</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>56327.17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1613</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>56327.199999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1713</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>56327.18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1813</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>56327.18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>1913</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>102827.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2013</v>
       </c>
@@ -2476,11 +2476,11 @@
         <v>131677.19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
       <c r="H16" s="3"/>
     </row>
@@ -2494,25 +2494,25 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" customWidth="1"/>
-    <col min="9" max="9" width="20.81640625" customWidth="1"/>
-    <col min="10" max="10" width="23.26953125" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1013</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1113</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1213</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>60000.01</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1313</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1413</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1513</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1613</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1713</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1813</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>1913</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>62046.62</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2013</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>73139.34</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="G15" s="3"/>
@@ -2968,26 +2968,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="118" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
+    <sheetView topLeftCell="B1" zoomScale="118" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" customWidth="1"/>
-    <col min="9" max="9" width="20.81640625" customWidth="1"/>
-    <col min="10" max="10" width="23.26953125" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1013</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1113</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1213</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1313</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>1413</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>1513</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>1613</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1713</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1813</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>1913</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2013</v>
       </c>
